--- a/Trimestre 2/7. Fichas tecnicas/Comparacion_de_precios Hardware.xlsx
+++ b/Trimestre 2/7. Fichas tecnicas/Comparacion_de_precios Hardware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr updateLinks="always" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/ProyectoBrisasGems/Fichas tecnicas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ce537462a3d960c/Documentos/ProyectoBrisasGems/Trimestre 2/7. Fichas tecnicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="11_CD5DEC4232EBC2351D66475A2715D44980B26BE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{995FD8F8-A0D6-470A-ACB1-B83ED6E4CE4F}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="11_CD5DEC4232EBC2351D66475A2715D44980B26BE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF13756-1315-43B0-A299-C5EBF51390A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="- AYUDA -" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2919,7 +2919,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1285466</xdr:colOff>
+      <xdr:colOff>1247366</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>613297</xdr:rowOff>
     </xdr:to>
@@ -3033,10 +3033,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3375,15 +3371,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="18" customWidth="1"/>
     <col min="2" max="11" width="22" style="18" customWidth="1"/>
     <col min="12" max="16384" width="12" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1"/>
-    <row r="2" spans="2:11" customFormat="1" ht="54.95" customHeight="1">
+    <row r="1" spans="2:11" ht="9.9" customHeight="1"/>
+    <row r="2" spans="2:11" customFormat="1" ht="54.9" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3421,31 +3417,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="43" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1"/>
-    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1">
+    <row r="2" spans="2:14" customFormat="1" ht="54.9" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3460,13 +3456,13 @@
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1"/>
     <row r="4" spans="2:14" ht="15" customHeight="1"/>
-    <row r="5" spans="2:14" ht="28.5">
+    <row r="5" spans="2:14" ht="28.8">
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="29.25" thickBot="1">
+    <row r="6" spans="2:14" ht="29.4" thickBot="1">
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1" ht="132" thickBot="1">
+    <row r="9" spans="2:14" s="7" customFormat="1" ht="126.6" thickBot="1">
       <c r="B9" s="76" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3559,7 @@
         <v>670000</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
+    <row r="10" spans="2:14" s="7" customFormat="1" ht="54.6" thickBot="1">
       <c r="B10" s="76" t="s">
         <v>42</v>
       </c>
@@ -3598,7 +3594,7 @@
         <v>507000</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="7" customFormat="1" ht="75.75" thickBot="1">
+    <row r="11" spans="2:14" s="7" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="B11" s="76" t="s">
         <v>43</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="7" customFormat="1" ht="94.5" thickBot="1">
+    <row r="12" spans="2:14" s="7" customFormat="1" ht="90.6" thickBot="1">
       <c r="B12" s="76" t="s">
         <v>44</v>
       </c>
@@ -3668,7 +3664,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
+    <row r="13" spans="2:14" s="7" customFormat="1" ht="54.6" thickBot="1">
       <c r="B13" s="76" t="s">
         <v>45</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>1280000</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
+    <row r="14" spans="2:14" s="7" customFormat="1" ht="54.6" thickBot="1">
       <c r="B14" s="76" t="s">
         <v>46</v>
       </c>
@@ -3738,7 +3734,7 @@
         <v>446750.22</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="57" thickBot="1">
+    <row r="15" spans="2:14" s="2" customFormat="1" ht="54.6" thickBot="1">
       <c r="B15" s="76" t="s">
         <v>47</v>
       </c>
@@ -3773,7 +3769,7 @@
         <v>629000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" s="2" customFormat="1" ht="75.75" thickBot="1">
+    <row r="16" spans="2:14" s="2" customFormat="1" ht="72.599999999999994" thickBot="1">
       <c r="B16" s="77" t="s">
         <v>53</v>
       </c>
@@ -3808,7 +3804,7 @@
         <v>530900</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="38.25" thickBot="1">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="36.6" thickBot="1">
       <c r="B17" s="77" t="s">
         <v>57</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>162012.65</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B18" s="77"/>
       <c r="C18" s="58"/>
       <c r="D18" s="46"/>
@@ -3866,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B19" s="74"/>
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
@@ -3889,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B20" s="74"/>
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
@@ -3912,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="74"/>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
@@ -3935,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B22" s="74"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
@@ -3958,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="74"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
@@ -3981,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B24" s="74"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
@@ -4004,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B25" s="75"/>
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
@@ -4027,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="B26"/>
       <c r="C26" s="33" t="s">
         <v>12</v>
@@ -4098,7 +4094,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="25.9" customHeight="1">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="25.95" customHeight="1">
       <c r="B30" s="87" t="s">
         <v>14</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="18.75">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="18">
       <c r="B32" s="87" t="s">
         <v>22</v>
       </c>
@@ -4158,7 +4154,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" ht="18.75">
+    <row r="33" spans="2:14" s="2" customFormat="1" ht="18">
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="50"/>
@@ -4168,7 +4164,7 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="2:14" ht="18.75">
+    <row r="34" spans="2:14" ht="18">
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="70" t="s">
@@ -4193,7 +4189,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:14" ht="23.25">
+    <row r="35" spans="2:14" ht="22.8">
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="68"/>
@@ -4220,7 +4216,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="18.75">
+    <row r="38" spans="2:14" ht="18">
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
@@ -4231,7 +4227,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="18.75">
+    <row r="39" spans="2:14" ht="18">
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
@@ -4239,7 +4235,7 @@
       <c r="H39" s="40"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="2:14" ht="18.75">
+    <row r="40" spans="2:14" ht="18">
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -4247,7 +4243,7 @@
       <c r="H40" s="40"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="2:14" ht="18.75">
+    <row r="41" spans="2:14" ht="18">
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -4255,7 +4251,7 @@
       <c r="H41" s="40"/>
       <c r="I41" s="37"/>
     </row>
-    <row r="42" spans="2:14" ht="18.75">
+    <row r="42" spans="2:14" ht="18">
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -4263,7 +4259,7 @@
       <c r="H42" s="40"/>
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="2:14" ht="18.75">
+    <row r="43" spans="2:14" ht="18">
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -4306,14 +4302,14 @@
       <selection activeCell="B28" sqref="B28:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="4" max="9" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="4" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="12" thickBot="1"/>
-    <row r="7" spans="2:9" ht="19.5" thickBot="1">
+    <row r="6" spans="2:9" ht="10.8" thickBot="1"/>
+    <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B7" s="45" t="s">
         <v>24</v>
       </c>
@@ -4339,7 +4335,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.5" thickBot="1">
+    <row r="8" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B8" s="45" t="s">
         <v>25</v>
       </c>
@@ -4365,7 +4361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1">
+    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="45" t="s">
         <v>26</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>452.4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.5" thickBot="1">
+    <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="45" t="s">
         <v>27</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>407.16</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.5" thickBot="1">
+    <row r="11" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B11" s="45" t="s">
         <v>28</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>366.44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="19.5" thickBot="1">
+    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="45" t="s">
         <v>29</v>
       </c>
@@ -4469,7 +4465,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="18.75">
+    <row r="19" spans="2:9" ht="18">
       <c r="D19" s="47">
         <v>30</v>
       </c>
@@ -4489,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="18.75">
+    <row r="20" spans="2:9" ht="18">
       <c r="D20" s="48">
         <v>10</v>
       </c>
@@ -4509,7 +4505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="18.75">
+    <row r="21" spans="2:9" ht="18">
       <c r="D21" s="49" t="s">
         <v>31</v>
       </c>
@@ -4529,7 +4525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="18.75">
+    <row r="22" spans="2:9" ht="18">
       <c r="D22" s="50" t="s">
         <v>34</v>
       </c>
@@ -4549,7 +4545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18.75">
+    <row r="23" spans="2:9" ht="18">
       <c r="D23" s="51"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -4557,7 +4553,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75">
+    <row r="24" spans="2:9" ht="18">
       <c r="D24" s="52"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -4565,8 +4561,8 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="27" spans="2:9" ht="12" thickBot="1"/>
-    <row r="28" spans="2:9" ht="19.5" thickBot="1">
+    <row r="27" spans="2:9" ht="10.8" thickBot="1"/>
+    <row r="28" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B28" s="45" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4588,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="19.5" thickBot="1">
+    <row r="29" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B29" s="45" t="s">
         <v>37</v>
       </c>
@@ -4618,7 +4614,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="19.5" thickBot="1">
+    <row r="30" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B30" s="45" t="s">
         <v>38</v>
       </c>
@@ -4644,37 +4640,37 @@
         <v>550</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.25">
+    <row r="35" spans="2:2" ht="13.8">
       <c r="B35" s="55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18.75">
+    <row r="36" spans="2:2" ht="18">
       <c r="B36" s="53">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18.75">
+    <row r="37" spans="2:2" ht="18">
       <c r="B37" s="54">
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18.75">
+    <row r="38" spans="2:2" ht="18">
       <c r="B38" s="54">
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18.75">
+    <row r="39" spans="2:2" ht="18">
       <c r="B39" s="54">
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18.75">
+    <row r="40" spans="2:2" ht="18">
       <c r="B40" s="54">
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18.75">
+    <row r="41" spans="2:2" ht="18">
       <c r="B41" s="54">
         <v>199</v>
       </c>
